--- a/Results_Snapshot.xlsx
+++ b/Results_Snapshot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mngav\Flatiron_Work\Final-Project-Mod-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C551BF7F-D3F7-4B17-9ED5-158439500827}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342DE662-AC1A-4E38-8CFD-3CA23B4FA8B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{6164C663-5729-4B50-8FC9-08654EFDFC82}"/>
+    <workbookView xWindow="29145" yWindow="705" windowWidth="25890" windowHeight="13425" xr2:uid="{6164C663-5729-4B50-8FC9-08654EFDFC82}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist (2)" sheetId="4" r:id="rId1"/>
@@ -1283,38 +1283,38 @@
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.73046875" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.73046875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.53125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.73046875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.1328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.73046875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="38.73046875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="9"/>
       <c r="M2" s="34" t="s">
         <v>8</v>
@@ -1328,7 +1328,7 @@
       <c r="T2" s="34"/>
       <c r="U2" s="34"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G3" s="9"/>
       <c r="N3" s="38" t="s">
         <v>24</v>
@@ -1339,7 +1339,7 @@
       <c r="R3" s="38"/>
       <c r="S3" s="38"/>
     </row>
-    <row r="4" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G4" s="9"/>
       <c r="N4" s="37" t="s">
         <v>155</v>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="S4" s="37"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" s="2" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="35" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="21"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1421,7 +1421,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="R7" s="29"/>
       <c r="S7" s="30"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1537,7 +1537,7 @@
       <c r="R10" s="32"/>
       <c r="S10" s="33"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G11" s="10"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1552,7 +1552,7 @@
       <c r="R11" s="32"/>
       <c r="S11" s="33"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G12" s="10"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1567,7 +1567,7 @@
       <c r="R12" s="32"/>
       <c r="S12" s="33"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="R13" s="32"/>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="C15" t="s">
         <v>12</v>
@@ -1657,7 +1657,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1690,7 +1690,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
         <v>153</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" t="s">
         <v>40</v>
@@ -1738,7 +1738,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" t="s">
@@ -1774,7 +1774,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" t="s">
@@ -1820,7 +1820,7 @@
       <c r="R21" s="32"/>
       <c r="S21" s="33"/>
     </row>
-    <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1854,7 +1854,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1885,7 +1885,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1899,7 +1899,7 @@
       <c r="R24" s="32"/>
       <c r="S24" s="33"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M25" s="31"/>
       <c r="N25" s="32"/>
       <c r="O25" s="33"/>
@@ -1908,7 +1908,7 @@
       <c r="R25" s="32"/>
       <c r="S25" s="33"/>
     </row>
-    <row r="26" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1929,7 +1929,7 @@
       <c r="W26"/>
       <c r="X26"/>
     </row>
-    <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1950,7 +1950,7 @@
       <c r="W27"/>
       <c r="X27"/>
     </row>
-    <row r="28" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1971,7 +1971,7 @@
       <c r="W28"/>
       <c r="X28"/>
     </row>
-    <row r="29" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1985,7 +1985,7 @@
       <c r="W29"/>
       <c r="X29"/>
     </row>
-    <row r="30" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1999,7 +1999,7 @@
       <c r="W30"/>
       <c r="X30"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
         <v>159</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
         <v>159</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2031,7 +2031,7 @@
       <c r="Y38"/>
       <c r="Z38"/>
     </row>
-    <row r="39" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -2047,7 +2047,7 @@
       <c r="Y39"/>
       <c r="Z39"/>
     </row>
-    <row r="40" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -2063,7 +2063,7 @@
       <c r="Y40"/>
       <c r="Z40"/>
     </row>
-    <row r="41" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2079,7 +2079,7 @@
       <c r="Y41"/>
       <c r="Z41"/>
     </row>
-    <row r="43" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2095,7 +2095,7 @@
       <c r="Y43"/>
       <c r="Z43"/>
     </row>
-    <row r="49" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -2108,7 +2108,7 @@
       <c r="Y49"/>
       <c r="Z49"/>
     </row>
-    <row r="50" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -2121,7 +2121,7 @@
       <c r="Y50"/>
       <c r="Z50"/>
     </row>
-    <row r="51" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -2134,7 +2134,7 @@
       <c r="Y51"/>
       <c r="Z51"/>
     </row>
-    <row r="52" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -2147,7 +2147,7 @@
       <c r="Y52"/>
       <c r="Z52"/>
     </row>
-    <row r="54" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -2160,7 +2160,7 @@
       <c r="Y54"/>
       <c r="Z54"/>
     </row>
-    <row r="55" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -2173,7 +2173,7 @@
       <c r="Y55"/>
       <c r="Z55"/>
     </row>
-    <row r="56" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
@@ -2208,28 +2208,28 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.265625" customWidth="1"/>
-    <col min="2" max="2" width="7.86328125" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.3984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.73046875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13.86328125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="1.73046875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="15.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="34" t="s">
         <v>7</v>
       </c>
@@ -2243,14 +2243,14 @@
       <c r="O2" s="42"/>
       <c r="P2" s="43"/>
     </row>
-    <row r="3" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="39" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="21"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2301,12 +2301,12 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>150</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>13</v>
       </c>
@@ -2409,17 +2409,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -2497,17 +2497,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -2539,27 +2539,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>134</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>135</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D29" s="15" t="s">
         <v>136</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>96.19</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>137</v>
       </c>
@@ -2615,35 +2615,35 @@
         <v>92.98</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="4:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:4" ht="30" x14ac:dyDescent="0.25">
       <c r="D39" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="16"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:4" ht="30" x14ac:dyDescent="0.25">
       <c r="D41" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>1</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>1</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -2670,12 +2670,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>144</v>
       </c>
@@ -2713,16 +2713,16 @@
       <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="35.73046875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.59765625" customWidth="1"/>
+    <col min="5" max="6" width="35.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="H6" s="45"/>
     </row>
-    <row r="9" spans="3:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>17</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>31</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>33</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>35</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="4:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:6" ht="60" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>37</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:6" ht="60" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>1</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>43</v>
       </c>
@@ -2853,51 +2853,51 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="19" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="19" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:44" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:44" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:44" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>45</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -3426,107 +3426,107 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
